--- a/Results/Qualifiers/Summary.xlsx
+++ b/Results/Qualifiers/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Documents\Coder-Bruv\Results\Qualifiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BBA76D-7CC6-4A98-AAA7-ADFC3224CBF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B233C27B-B0F6-41F9-90B4-13F91BF72411}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18930" yWindow="0" windowWidth="38400" windowHeight="21000" xr2:uid="{2C1BEDCC-EC45-43BE-B13B-E3ACD0925713}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="38400" windowHeight="21000" xr2:uid="{2C1BEDCC-EC45-43BE-B13B-E3ACD0925713}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="104">
   <si>
     <t>Game #</t>
   </si>
@@ -291,6 +291,63 @@
   </si>
   <si>
     <t>youthful_jennings-b601200c619a43baba361605b8945942</t>
+  </si>
+  <si>
+    <t>Unlucky bomb dismount</t>
+  </si>
+  <si>
+    <t>Did perfectly on the fire, but 1hp and enemy bot chadonated on us while burning in fire</t>
+  </si>
+  <si>
+    <t>Bad bomb dismount, twice</t>
+  </si>
+  <si>
+    <t>Enemy chadonated</t>
+  </si>
+  <si>
+    <t>Unlucky bomb dismount / need to suicide/plant if blobked in by other player</t>
+  </si>
+  <si>
+    <t>Bad bomb placement</t>
+  </si>
+  <si>
+    <t>Suicide bot, difficult to counter</t>
+  </si>
+  <si>
+    <t>Massively out-ranged, bad bomb placement</t>
+  </si>
+  <si>
+    <t>Double bomb planted, bad bomb placement, not suiciding, didn't trap when possible due to own potential bomb blast</t>
+  </si>
+  <si>
+    <t>Trapped for large part of game, by player not bombs</t>
+  </si>
+  <si>
+    <t>Walked through existing bomb blast over bein in enemy potential bomb blast (big bad)</t>
+  </si>
+  <si>
+    <t>Late game bomb planting could be better</t>
+  </si>
+  <si>
+    <t>Played fine until fire, other bot beat us in fire handling, by &lt; 5 ticks</t>
+  </si>
+  <si>
+    <t>Triple unlucky bomb dismount / bad bomb placement</t>
+  </si>
+  <si>
+    <t>Walked through existing blast over potential enemy blast, got trapped by enemy due to fire, then chadonated upon</t>
+  </si>
+  <si>
+    <t>Trapped in place by enemy, resulting in getting hit by own bombs and fire</t>
+  </si>
+  <si>
+    <t>Bad bomb placement/dismount</t>
+  </si>
+  <si>
+    <t>Suicide bot gonna suicide - better bomb placements should help</t>
+  </si>
+  <si>
+    <t>Bad bomnb placement/dismount</t>
   </si>
 </sst>
 </file>
@@ -710,7 +767,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576709E2-ECE2-4FE0-AA47-093AE2AC65E5}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -721,8 +780,8 @@
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="108.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -756,235 +815,239 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="5">
         <v>1.67E-2</v>
       </c>
       <c r="G2" s="2">
-        <v>395</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="5">
-        <v>1.9400000000000001E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="G3" s="2">
-        <v>169</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" s="5">
-        <v>5.8999999999999999E-3</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>8</v>
+        <v>1.43E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>54</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6">
-        <v>5.0599999999999999E-2</v>
-      </c>
-      <c r="G5" s="3">
-        <v>2195</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="A5" s="2">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1.43E-2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>55</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="A6" s="2">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.89E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>56</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>24</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="G6" s="4">
-        <v>94</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="6">
-        <v>5.96E-2</v>
-      </c>
-      <c r="G7" s="3">
-        <v>2188</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>73</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" s="5">
-        <v>2.1899999999999999E-2</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="G8" s="2">
-        <v>542</v>
+        <v>83</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="6">
-        <v>2.3700000000000002E-2</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1188</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>94</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" s="5">
-        <v>1.8100000000000002E-2</v>
+        <v>1.6399999999999998E-2</v>
       </c>
       <c r="G10" s="2">
-        <v>749</v>
+        <v>102</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>34</v>
@@ -993,626 +1056,650 @@
         <v>35</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="6">
-        <v>1.78E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="G11" s="3">
-        <v>494</v>
-      </c>
-      <c r="H11" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="5">
-        <v>2.1700000000000001E-2</v>
-      </c>
-      <c r="G12" s="2">
-        <v>947</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="A12" s="3">
+        <v>42</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>130</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="A13" s="2">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1.66E-2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>150</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>2</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="7">
-        <v>8.5699999999999998E-2</v>
-      </c>
-      <c r="G13" s="4">
-        <v>677</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>169</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1.55E-2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>197</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="7">
-        <v>2.3700000000000002E-2</v>
-      </c>
-      <c r="G14" s="4">
-        <v>1573</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="E16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>264</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="7">
-        <v>3.7400000000000003E-2</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1812</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1.66E-2</v>
-      </c>
-      <c r="G16" s="2">
-        <v>150</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="6">
-        <v>3.2899999999999999E-2</v>
-      </c>
-      <c r="G17" s="3">
-        <v>926</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1.67E-2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>395</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" s="5">
-        <v>1.9299999999999998E-2</v>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="G18" s="2">
-        <v>2061</v>
+        <v>429</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" s="5">
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>8</v>
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>462</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1.67E-2</v>
-      </c>
-      <c r="G20" s="2">
-        <v>27</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="A20" s="3">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1.78E-2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>494</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="5">
-        <v>2.6699999999999998E-2</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>8</v>
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="G21" s="2">
+        <v>542</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="5">
-        <v>2.2799999999999997E-2</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1932</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="A22" s="4">
+        <v>12</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="7">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="G22" s="4">
+        <v>677</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
+        <v>9</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="G23" s="2">
+        <v>749</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>16</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="6">
-        <v>2.76E-2</v>
-      </c>
-      <c r="G23" s="3">
-        <v>2182</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="7">
-        <v>2.4399999999999998E-2</v>
-      </c>
-      <c r="G24" s="4">
-        <v>2198</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="6">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="G24" s="3">
+        <v>926</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25" s="5">
-        <v>1.7600000000000001E-2</v>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="G25" s="2">
-        <v>73</v>
+        <v>947</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="5">
-        <v>5.6100000000000004E-2</v>
-      </c>
-      <c r="G26" s="2">
-        <v>1812</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="A26" s="3">
+        <v>45</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="6">
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1144</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="5">
-        <v>2.0899999999999998E-2</v>
-      </c>
-      <c r="G27" s="2">
-        <v>2034</v>
-      </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="A27" s="3">
+        <v>8</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="6">
+        <v>2.3700000000000002E-2</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1188</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="A28" s="2">
+        <v>41</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1.89E-2</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1315</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>40</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="6">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="G28" s="3">
-        <v>264</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="5">
-        <v>1.89E-2</v>
-      </c>
-      <c r="G29" s="2">
-        <v>56</v>
-      </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="E29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="7">
+        <v>2.76E-2</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1413</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30" s="7">
-        <v>9.2799999999999994E-2</v>
+        <v>2.3700000000000002E-2</v>
       </c>
       <c r="G30" s="4">
-        <v>1990</v>
-      </c>
-      <c r="H30" s="4"/>
+        <v>1573</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="5">
-        <v>1.55E-2</v>
-      </c>
-      <c r="G31" s="2">
-        <v>197</v>
-      </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="A31" s="4">
+        <v>14</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="7">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1812</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
+        <v>25</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="5">
+        <v>5.6100000000000004E-2</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1812</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="7">
+      <c r="E33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="7">
         <v>0.1104</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G33" s="4">
         <v>1846</v>
       </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="5">
-        <v>1.43E-2</v>
-      </c>
-      <c r="G33" s="2">
-        <v>55</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+      <c r="H33" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F34" s="5">
-        <v>1.6399999999999998E-2</v>
+        <v>2.2799999999999997E-2</v>
       </c>
       <c r="G34" s="2">
-        <v>102</v>
+        <v>1932</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="5">
-        <v>2.3700000000000002E-2</v>
-      </c>
-      <c r="G35" s="2">
-        <v>2080</v>
-      </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+      <c r="A35" s="4">
+        <v>29</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="7">
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1990</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>3</v>
@@ -1621,60 +1708,60 @@
         <v>5</v>
       </c>
       <c r="F36" s="5">
-        <v>1.43E-2</v>
+        <v>2.2200000000000001E-2</v>
       </c>
       <c r="G36" s="2">
-        <v>54</v>
+        <v>2028</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="6">
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="G37" s="3">
-        <v>111</v>
-      </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="A37" s="2">
+        <v>26</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="5">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="G37" s="2">
+        <v>2034</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F38" s="5">
-        <v>2.2200000000000001E-2</v>
+        <v>1.9299999999999998E-2</v>
       </c>
       <c r="G38" s="2">
-        <v>2028</v>
+        <v>2061</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -1706,200 +1793,212 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40" s="5">
-        <v>1.9400000000000001E-2</v>
+        <v>2.3700000000000002E-2</v>
       </c>
       <c r="G40" s="2">
-        <v>429</v>
+        <v>2080</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="7">
+      <c r="A41" s="3">
+        <v>22</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="6">
         <v>2.76E-2</v>
       </c>
-      <c r="G41" s="4">
-        <v>1413</v>
-      </c>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="G41" s="3">
+        <v>2182</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I41" s="3"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="5">
-        <v>1.89E-2</v>
-      </c>
-      <c r="G42" s="2">
-        <v>1315</v>
-      </c>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="A42" s="3">
+        <v>6</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="6">
+        <v>5.96E-2</v>
+      </c>
+      <c r="G42" s="3">
+        <v>2188</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F43" s="6">
-        <v>1.6E-2</v>
+        <v>5.0599999999999999E-2</v>
       </c>
       <c r="G43" s="3">
-        <v>130</v>
-      </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+        <v>2195</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="5">
-        <v>1.32E-2</v>
-      </c>
-      <c r="G44" s="2">
-        <v>28</v>
-      </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+      <c r="A44" s="4">
+        <v>23</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="7">
+        <v>2.4399999999999998E-2</v>
+      </c>
+      <c r="G44" s="4">
+        <v>2198</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F45" s="5">
-        <v>1.6899999999999998E-2</v>
-      </c>
-      <c r="G45" s="2">
-        <v>462</v>
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>45</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="6">
-        <v>2.7999999999999997E-2</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1144</v>
-      </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
+      <c r="A46" s="2">
+        <v>18</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="5">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F47" s="5">
-        <v>1.4800000000000001E-2</v>
-      </c>
-      <c r="G47" s="2">
-        <v>83</v>
+        <v>2.6699999999999998E-2</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -1907,7 +2006,7 @@
   </sheetData>
   <autoFilter ref="A1:I47" xr:uid="{E990AB14-0297-453A-83D2-C20DCB75C44A}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I47">
-      <sortCondition ref="A1:A47"/>
+      <sortCondition ref="G1:G47"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
